--- a/default/6_transmission_lines/concept.xlsx
+++ b/default/6_transmission_lines/concept.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\pyesm\default\6_transmission_lines\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03A2147-F35D-4D61-A07D-D4AA9EC5AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A18301-EE1F-4DFC-8518-D2DBF8177041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-69" yWindow="-69" windowWidth="22080" windowHeight="13132" activeTab="1" xr2:uid="{B26EA869-E077-404B-8821-28AAA0DECE59}"/>
+    <workbookView xWindow="28620" yWindow="-180" windowWidth="29160" windowHeight="15840" activeTab="1" xr2:uid="{B26EA869-E077-404B-8821-28AAA0DECE59}"/>
   </bookViews>
   <sheets>
     <sheet name="storage" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">storage!$H$35:$I$39,storage!$K$35:$M$39</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">transmission!$G$25:$J$25,transmission!$L$25:$O$25,transmission!$Q$25:$T$25</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">transmission!$F$24:$I$24,transmission!$K$24:$N$24,transmission!$P$24:$S$24</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -36,13 +36,13 @@
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">storage!$Z$8:$AD$8</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">transmission!$X$12:$X$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">transmission!$W$11:$W$14</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">storage!$M$35:$M$39</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">storage!$M$35:$M$39</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">storage!$Z$10:$AD$11</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">transmission!$X$17:$X$20</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">transmission!$W$16:$W$19</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">storage!$K$35:$L$39</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">transmission!$X$7:$X$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">transmission!$W$6:$W$9</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">storage!$K$35:$L$39</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">transmission!#REF!</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">storage!$M$42:$M$46</definedName>
@@ -57,7 +57,7 @@
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">storage!$O$12</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">transmission!$V$22</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">transmission!$U$21</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">3</definedName>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="86">
   <si>
     <t>flows</t>
   </si>
@@ -365,9 +365,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>y.1</t>
   </si>
   <si>
     <t>d_t</t>
@@ -644,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -685,7 +682,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1912,240 +1925,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF895F2-5E3F-4E26-B612-E067787E4C63}">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q22" sqref="Q22:T22"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="17.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.765625" customWidth="1"/>
-    <col min="7" max="10" width="4.3828125" customWidth="1"/>
-    <col min="11" max="11" width="1.3828125" customWidth="1"/>
-    <col min="12" max="15" width="4.3828125" customWidth="1"/>
-    <col min="16" max="16" width="1.3828125" customWidth="1"/>
-    <col min="17" max="23" width="4.3828125" customWidth="1"/>
-    <col min="24" max="24" width="5.07421875" customWidth="1"/>
-    <col min="25" max="35" width="4.3828125" customWidth="1"/>
+    <col min="4" max="4" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.765625" customWidth="1"/>
+    <col min="6" max="9" width="4.3828125" customWidth="1"/>
+    <col min="10" max="10" width="1.3828125" customWidth="1"/>
+    <col min="11" max="14" width="4.3828125" customWidth="1"/>
+    <col min="15" max="15" width="1.3828125" customWidth="1"/>
+    <col min="16" max="22" width="4.3828125" customWidth="1"/>
+    <col min="23" max="23" width="5.07421875" customWidth="1"/>
+    <col min="24" max="34" width="4.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="V1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" t="s">
-        <v>68</v>
-      </c>
-      <c r="V4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="U4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="V5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="K5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="L6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="K6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="36">
+        <v>1.2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="37">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1</v>
+      </c>
+      <c r="S6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="30" cm="1">
+        <f t="array" ref="W6:W9">TRANSPOSE(F24:I24)-MMULT(K6:N9,TRANSPOSE(K24:N24))-U6:U9</f>
+        <v>2.0000000233721948E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="L7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>1</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="30" cm="1">
-        <f t="array" ref="X7:X10">TRANSPOSE(G25:J25)-MMULT(L7:O10,TRANSPOSE(L25:O25))-V7:V10</f>
-        <v>2.0000000233721948E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
+      <c r="K7" s="38">
+        <v>0</v>
+      </c>
+      <c r="L7" s="39">
+        <v>0</v>
+      </c>
+      <c r="M7" s="38">
+        <v>0</v>
+      </c>
+      <c r="N7" s="38">
+        <v>0</v>
+      </c>
+      <c r="P7" s="40">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="41">
+        <v>0</v>
+      </c>
+      <c r="R7" s="40">
+        <v>0</v>
+      </c>
+      <c r="S7" s="40">
+        <v>1</v>
+      </c>
+      <c r="U7" s="38">
+        <v>10</v>
+      </c>
+      <c r="W7" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="L8" s="1">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36">
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="36">
         <v>0</v>
       </c>
       <c r="R8" s="7">
@@ -2154,853 +2195,801 @@
       <c r="S8" s="7">
         <v>0</v>
       </c>
-      <c r="T8" s="7">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>10</v>
-      </c>
-      <c r="X8" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="31">
+        <v>-3.9999999934536845E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="36">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>1</v>
+      </c>
+      <c r="R9" s="7">
         <v>0</v>
       </c>
       <c r="S9" s="7">
         <v>0</v>
       </c>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="X9" s="31">
-        <v>-3.9999999934536845E-7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+      <c r="U9" s="1">
+        <v>5</v>
+      </c>
+      <c r="W9" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="25">
+        <v>0</v>
+      </c>
+      <c r="W11" s="33" cm="1">
+        <f t="array" ref="W11:W14">TRANSPOSE(K24:N24)-MMULT(F11:I14,TRANSPOSE(F24:I24))</f>
+        <v>-4.0000000112172529E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0</v>
+      </c>
+      <c r="I12" s="42">
+        <v>0</v>
+      </c>
+      <c r="W12" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="W13" s="31">
+        <v>3.9999999934536845E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <v>1</v>
+      </c>
+      <c r="W14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="F15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="28" cm="1">
+        <f t="array" ref="F16:I19">F11:I14*TRANSPOSE(P6:S9)+_xlfn.MUNIT(4)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="45">
+        <v>0</v>
+      </c>
+      <c r="H16" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="28">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="36">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="30" cm="1">
+        <f t="array" ref="W16:W19">TRANSPOSE(P24:S24)-MMULT(F16:I19,TRANSPOSE(F24:I24))</f>
+        <v>-4.0000000112172529E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0</v>
+      </c>
+      <c r="G17" s="46">
+        <v>1</v>
+      </c>
+      <c r="H17" s="44">
+        <v>0</v>
+      </c>
+      <c r="I17" s="44">
+        <v>0</v>
+      </c>
+      <c r="P17" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="38">
+        <v>0</v>
+      </c>
+      <c r="S17" s="38">
+        <v>1</v>
+      </c>
+      <c r="W17" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q18" s="36">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W19" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="K20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="U21" s="26">
+        <f>SUM(_xlfn.ANCHORARRAY(K27),_xlfn.ANCHORARRAY(F45))</f>
+        <v>130.19349332000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="F24" s="27">
+        <v>12.867470000000001</v>
+      </c>
+      <c r="G24" s="47">
+        <v>10</v>
+      </c>
+      <c r="H24" s="27">
+        <v>13.084337</v>
+      </c>
+      <c r="I24" s="27">
+        <v>5</v>
+      </c>
+      <c r="K24" s="27">
+        <v>10.337349</v>
+      </c>
+      <c r="L24" s="47">
+        <v>9</v>
+      </c>
+      <c r="M24" s="27">
+        <v>15.614458000000001</v>
+      </c>
+      <c r="N24" s="27">
+        <v>6</v>
+      </c>
+      <c r="P24" s="27">
+        <v>15.484337</v>
+      </c>
+      <c r="Q24" s="47">
+        <v>10</v>
+      </c>
+      <c r="R24" s="27">
+        <v>18.231324999999998</v>
+      </c>
+      <c r="S24" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="K26" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="K27" s="29" cm="1">
+        <f t="array" ref="K27:N27">MMULT(K24:N24,_xlfn.MUNIT(4)*K21:N21)</f>
+        <v>10.337349</v>
+      </c>
+      <c r="L27" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="M27" s="29">
+        <v>23.421687000000002</v>
+      </c>
+      <c r="N27" s="29">
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="K29" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="29" cm="1">
+        <f t="array" ref="K30:N33">MMULT(K6:N9,K24:N24*_xlfn.MUNIT(4))</f>
+        <v>2.0674698</v>
+      </c>
+      <c r="L30" s="48">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="M30" s="29">
+        <v>0</v>
+      </c>
+      <c r="N30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
+      <c r="K31" s="49">
+        <v>0</v>
+      </c>
+      <c r="L31" s="50">
+        <v>0</v>
+      </c>
+      <c r="M31" s="49">
+        <v>0</v>
+      </c>
+      <c r="N31" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="29">
+        <v>0</v>
+      </c>
+      <c r="L32" s="48">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>4.6843374000000004</v>
+      </c>
+      <c r="N32" s="29">
+        <v>8.3999999999999986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="29">
+        <v>0</v>
+      </c>
+      <c r="L33" s="48">
+        <v>0</v>
+      </c>
+      <c r="M33" s="29">
+        <v>0</v>
+      </c>
+      <c r="N33" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F34" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="8" cm="1">
+        <f t="array" ref="F35:I38">MMULT(F11:I14,F24:I24*_xlfn.MUNIT(4))</f>
+        <v>7.7204820000000005</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <v>2.6168674000000003</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8">
+        <v>9</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="8">
+        <v>5.1469880000000003</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>10.467469600000001</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
         <v>5</v>
       </c>
-      <c r="X10" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="G11" s="3" t="s">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F39" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="8" cm="1">
+        <f t="array" ref="F40:I43">MMULT(F16:I19,F24:I24*_xlfn.MUNIT(4))</f>
+        <v>12.867470000000001</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8">
+        <v>2.6168674000000003</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <v>10</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="8">
+        <v>5.1469880000000003</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8">
+        <v>13.084337</v>
+      </c>
+      <c r="I42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="F44" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="8" cm="1">
+        <f t="array" ref="F45:I48">MMULT(P16:S19,F40:I43)</f>
+        <v>19.043855600000001</v>
+      </c>
+      <c r="G45" s="24">
+        <v>0</v>
+      </c>
+      <c r="H45" s="24">
+        <v>18.318071799999998</v>
+      </c>
+      <c r="I45" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="24">
+        <v>0</v>
+      </c>
+      <c r="G46" s="24">
         <v>6</v>
       </c>
-      <c r="X11" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="25">
-        <v>0.6</v>
-      </c>
-      <c r="H12" s="25">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="J12" s="25">
-        <v>0</v>
-      </c>
-      <c r="X12" s="33" cm="1">
-        <f t="array" ref="X12:X15">TRANSPOSE(L25:O25)-MMULT(G12:J15,TRANSPOSE(G25:J25))</f>
-        <v>-4.0000000112172529E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
-        <v>0.9</v>
-      </c>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0</v>
-      </c>
-      <c r="X13" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+      <c r="H46" s="24">
+        <v>0</v>
+      </c>
+      <c r="I46" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="J14" s="25">
-        <v>0</v>
-      </c>
-      <c r="X14" s="31">
-        <v>3.9999999934536845E-7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="I15" s="25">
-        <v>0</v>
-      </c>
-      <c r="J15" s="25">
-        <v>1</v>
-      </c>
-      <c r="X15" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="G16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C47" t="s">
         <v>67</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D47" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="28" cm="1">
-        <f t="array" ref="G17:J20">G12:J15*TRANSPOSE(Q7:T10)+_xlfn.MUNIT(4)</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="28">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="J17" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>1</v>
-      </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="30" cm="1">
-        <f t="array" ref="X17:X20">TRANSPOSE(Q25:T25)-MMULT(G17:J20,TRANSPOSE(G25:J25))</f>
-        <v>-4.0000000112172529E-7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
+      <c r="F47" s="24">
+        <v>14.411566400000002</v>
+      </c>
+      <c r="G47" s="24">
+        <v>0</v>
+      </c>
+      <c r="H47" s="24">
+        <v>12.560963520000001</v>
+      </c>
+      <c r="I47" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D48" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="28">
-        <v>0</v>
-      </c>
-      <c r="H18" s="28">
-        <v>1</v>
-      </c>
-      <c r="I18" s="28">
-        <v>0</v>
-      </c>
-      <c r="J18" s="28">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="X18" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="T19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="X20" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="L21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N22" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="V22" s="26">
-        <f>SUM(_xlfn.ANCHORARRAY(L28),_xlfn.ANCHORARRAY(G46))</f>
-        <v>130.19349332000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="G24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="L24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="27">
-        <v>12.867470000000001</v>
-      </c>
-      <c r="H25" s="27">
-        <v>10</v>
-      </c>
-      <c r="I25" s="27">
-        <v>13.084337</v>
-      </c>
-      <c r="J25" s="27">
-        <v>5</v>
-      </c>
-      <c r="L25" s="27">
-        <v>10.337349</v>
-      </c>
-      <c r="M25" s="27">
-        <v>9</v>
-      </c>
-      <c r="N25" s="27">
-        <v>15.614458000000001</v>
-      </c>
-      <c r="O25" s="27">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="27">
-        <v>15.484337</v>
-      </c>
-      <c r="R25" s="27">
-        <v>10</v>
-      </c>
-      <c r="S25" s="27">
-        <v>18.231324999999998</v>
-      </c>
-      <c r="T25" s="27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="N27" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="L28" s="29" cm="1">
-        <f t="array" ref="L28:O28">MMULT(L25:O25,_xlfn.MUNIT(4)*L22:O22)</f>
-        <v>10.337349</v>
-      </c>
-      <c r="M28" s="29">
-        <v>4.5</v>
-      </c>
-      <c r="N28" s="29">
-        <v>23.421687000000002</v>
-      </c>
-      <c r="O28" s="29">
-        <v>4.1999999999999993</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="L30" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L31" s="29" cm="1">
-        <f t="array" ref="L31:O34">MMULT(L7:O10,L25:O25*_xlfn.MUNIT(4))</f>
-        <v>2.0674698</v>
-      </c>
-      <c r="M31" s="29">
-        <v>10.799999999999999</v>
-      </c>
-      <c r="N31" s="29">
-        <v>0</v>
-      </c>
-      <c r="O31" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>63</v>
-      </c>
-      <c r="L32" s="29">
-        <v>0</v>
-      </c>
-      <c r="M32" s="29">
-        <v>0</v>
-      </c>
-      <c r="N32" s="29">
-        <v>0</v>
-      </c>
-      <c r="O32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-      <c r="L33" s="29">
-        <v>0</v>
-      </c>
-      <c r="M33" s="29">
-        <v>0</v>
-      </c>
-      <c r="N33" s="29">
-        <v>4.6843374000000004</v>
-      </c>
-      <c r="O33" s="29">
-        <v>8.3999999999999986</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L34" s="29">
-        <v>0</v>
-      </c>
-      <c r="M34" s="29">
-        <v>0</v>
-      </c>
-      <c r="N34" s="29">
-        <v>0</v>
-      </c>
-      <c r="O34" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="G35" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="8" cm="1">
-        <f t="array" ref="G36:J39">MMULT(G12:J15,G25:J25*_xlfn.MUNIT(4))</f>
-        <v>7.7204820000000005</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <v>2.6168674000000003</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>9</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="8">
-        <v>5.1469880000000003</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8">
-        <v>10.467469600000001</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="G40" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="8" cm="1">
-        <f t="array" ref="G41:J44">MMULT(G17:J20,G25:J25*_xlfn.MUNIT(4))</f>
-        <v>12.867470000000001</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <v>2.6168674000000003</v>
-      </c>
-      <c r="J41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D42" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <v>10</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="8">
-        <v>5.1469880000000003</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8">
-        <v>13.084337</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>1</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="G45" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="8" cm="1">
-        <f t="array" ref="G46:J49">MMULT(Q17:T20,G41:J44)</f>
-        <v>19.043855600000001</v>
-      </c>
-      <c r="H46" s="24">
-        <v>0</v>
-      </c>
-      <c r="I46" s="24">
-        <v>18.318071799999998</v>
-      </c>
-      <c r="J46" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="24">
-        <v>0</v>
-      </c>
-      <c r="H47" s="24">
-        <v>6</v>
-      </c>
-      <c r="I47" s="24">
-        <v>0</v>
-      </c>
-      <c r="J47" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" t="s">
-        <v>70</v>
+      <c r="F48" s="24">
+        <v>0</v>
       </c>
       <c r="G48" s="24">
-        <v>14.411566400000002</v>
+        <v>7.9</v>
       </c>
       <c r="H48" s="24">
         <v>0</v>
       </c>
       <c r="I48" s="24">
-        <v>12.560963520000001</v>
-      </c>
-      <c r="J48" s="24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D49" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="24">
-        <v>0</v>
-      </c>
-      <c r="H49" s="24">
-        <v>7.9</v>
-      </c>
-      <c r="I49" s="24">
-        <v>0</v>
-      </c>
-      <c r="J49" s="24">
         <v>4.5</v>
       </c>
     </row>
